--- a/02_MasterWifoMannheim/99_Backup/Course164.xlsx
+++ b/02_MasterWifoMannheim/99_Backup/Course164.xlsx
@@ -1,142 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mailunimannheimde-my.sharepoint.com/personal/pstapf_mail_uni-mannheim_de/Documents/Uni/Master/Masterarbeit/Course_Suggestion/02_MasterWifoMannheim/03_Courses/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="11_2B59D2BFD300D369A3B92311598D587658B5FCED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{087FE307-6F18-4BEE-BC8B-D16C12C6A764}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
-  <si>
-    <t>Module</t>
-  </si>
-  <si>
-    <t>OPM 601 Supply Chain Management</t>
-  </si>
-  <si>
-    <t>Contents</t>
-  </si>
-  <si>
-    <t>Supply Chain demand. As such, it is paramount to the creation of business value. well run supply chains are an important source of competitive advantage. Particular complexities arise from the interplay between different supply chain members, including suppliers, manufacturers, and retailers, each having their own objectives. same time, supply chain members are dependent on each other to serve the final customer. Supply chain management addresses the interplay between individual objectives and seeks to align them to optimize overall supply chain performance. This course discusses the impact of supply chain management on firm performance. provides tools and concepts for an effective supply chain design and operation. attention is given to supply chain coordination. The course presents quantitative models to investigate this issue. The course also discusses the impact of recent trends on supply chain management, including digitalization and sustainability.</t>
-  </si>
-  <si>
-    <t>Learning outcomes</t>
-  </si>
-  <si>
-    <t>Students will understand the role of supply chain management and its impact on firm performance. along the supply chain. They will also be aware of obstacles that complicate this coordination. The students will get to know mechanisms for aligning incentives of different supply chain members, e.g. by means of appropriate contracts. They will be able to quantify the effects of these mechanisms by means of corresponding mathematical models. will be aware of relevant recent trends and of their impact on supply chain management.</t>
-  </si>
-  <si>
-    <t>Prerequisites</t>
-  </si>
-  <si>
-    <t>Obligatory registration</t>
-  </si>
-  <si>
-    <t>Further information on registration: -</t>
-  </si>
-  <si>
-    <t>Courses Hours per weekSelf-study Lecture 2 6 Exercise class 2 2</t>
-  </si>
-  <si>
-    <t>ECTS</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>Form of assessment</t>
-  </si>
-  <si>
-    <t>Written exam (90 min.)</t>
-  </si>
-  <si>
-    <t>Preliminary course work -</t>
-  </si>
-  <si>
-    <t>Lecturer/Person in charge</t>
-  </si>
-  <si>
-    <t>Prof. Dr. Moritz Fleischmann</t>
-  </si>
-  <si>
-    <t>Duration of module</t>
-  </si>
-  <si>
-    <t>1 semester</t>
-  </si>
-  <si>
-    <t>Offering</t>
-  </si>
-  <si>
-    <t>Spring semester</t>
-  </si>
-  <si>
-    <t>Language</t>
-  </si>
-  <si>
-    <t>English</t>
-  </si>
-  <si>
-    <t>Program-specific educational goals</t>
-  </si>
-  <si>
-    <t>Grade</t>
-  </si>
-  <si>
-    <t>graded</t>
-  </si>
-  <si>
-    <t>Range of application</t>
-  </si>
-  <si>
-    <t>M.Sc. MMM, M.Sc. Bus. Edu., M.Sc. Bus. Inf., M.Sc. Bus. Math., M.Sc. Econ.</t>
-  </si>
-  <si>
-    <t>OPM 501| OPM 502| OPM 561| OPM 581| OPM 582| OPM 591</t>
-  </si>
-  <si>
-    <t>Benötigte Kurse</t>
-  </si>
-  <si>
-    <t>OPM 501, OPM 502, Operations Management (OPM), Mathematical and Statistical Foundations (MSF)</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -151,43 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -475,148 +420,217 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1">
+    <row r="1">
+      <c r="A1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B1" s="1">
+      <c r="B1" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" t="s">
-        <v>27</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Module</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>OPM 601 Supply Chain Management</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Contents</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Supply Chain demand. As such, it is paramount to the creation of business value. well run supply chains are an important source of competitive advantage. Particular complexities arise from the interplay between different supply chain members, including suppliers, manufacturers, and retailers, each having their own objectives. same time, supply chain members are dependent on each other to serve the final customer. Supply chain management addresses the interplay between individual objectives and seeks to align them to optimize overall supply chain performance. This course discusses the impact of supply chain management on firm performance. provides tools and concepts for an effective supply chain design and operation. attention is given to supply chain coordination. The course presents quantitative models to investigate this issue. The course also discusses the impact of recent trends on supply chain management, including digitalization and sustainability.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Learning outcomes</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Students will understand the role of supply chain management and its impact on firm performance. along the supply chain. They will also be aware of obstacles that complicate this coordination. The students will get to know mechanisms for aligning incentives of different supply chain members, e.g. by means of appropriate contracts. They will be able to quantify the effects of these mechanisms by means of corresponding mathematical models. will be aware of relevant recent trends and of their impact on supply chain management.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Prerequisites</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>OPM 501, OPM 502, Operations Management (OPM), Mathematical and Statistical Foundations (MSF)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Benötigte Kurse</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>OPM 501| OPM 502| OPM 561| OPM 581| OPM 582| OPM 591</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Obligatory registration</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Further information on registration: -</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Courses Hours per weekSelf-study Lecture 2 6 Exercise class 2 2</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>ECTS</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Form of assessment</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Written exam (90 min.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Preliminary course work -</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Lecturer/Person in charge</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Prof. Dr. Moritz Fleischmann</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Duration of module</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>1 semester</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Offering</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>SSS</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Language</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Program-specific educational goals</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Grade</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>graded</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Range of application</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>M.Sc. MMM, M.Sc. Bus. Edu., M.Sc. Bus. Inf., M.Sc. Bus. Math., M.Sc. Econ.</t>
+        </is>
       </c>
     </row>
   </sheetData>
